--- a/conditions/Runs.xlsx
+++ b/conditions/Runs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catalystmri/Desktop/LearningTask/conditions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katharinaseitz/Documents/projects/RL-scancamp/conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3404BFD-43B9-0444-B080-DB70799FF052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="25360" windowHeight="14320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Runs</t>
   </si>
@@ -34,17 +35,11 @@
   <si>
     <t>Run2</t>
   </si>
-  <si>
-    <t>Run3</t>
-  </si>
-  <si>
-    <t>Run4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -85,6 +80,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -411,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,16 +433,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
